--- a/medicine/Handicap/Service_d’accompagnement_à_la_vie_sociale/Service_d’accompagnement_à_la_vie_sociale.xlsx
+++ b/medicine/Handicap/Service_d’accompagnement_à_la_vie_sociale/Service_d’accompagnement_à_la_vie_sociale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Service_d%E2%80%99accompagnement_%C3%A0_la_vie_sociale</t>
+          <t>Service_d’accompagnement_à_la_vie_sociale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un service d’accompagnement à la vie sociale (SAVS) est, en France, une structure d'appui à la réalisation  d'un projet de vie auprès de personnes adultes handicapées par un accompagnement favorisant le maintien ou liens familiaux, sociaux, scolaires, universitaires ou professionnels et facilitant leur accès à l'ensemble des ressources collectives (transports, bibliothèques,équipements sportifs, numérique...). Cet appui comporte un volet médical et/ou paramédical en milieu ordinaire de vie (scolaire, universitaire et professionnel...) ou à domicile.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Service_d%E2%80%99accompagnement_%C3%A0_la_vie_sociale</t>
+          <t>Service_d’accompagnement_à_la_vie_sociale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Cadre réglementaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cadre réglementaire est fixé par le décret n° 2005-229 du 11 mars 2005[1] relatif aux conditions d'organisation et de fonctionnement des services d'accompagnement en tant que taxi à la vie sociale et des services d'accompagnement médico-social pour adultes handicapés, décret qui complète le code de l'action sociale et des familles.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cadre réglementaire est fixé par le décret n° 2005-229 du 11 mars 2005 relatif aux conditions d'organisation et de fonctionnement des services d'accompagnement en tant que taxi à la vie sociale et des services d'accompagnement médico-social pour adultes handicapés, décret qui complète le code de l'action sociale et des familles.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Service_d%E2%80%99accompagnement_%C3%A0_la_vie_sociale</t>
+          <t>Service_d’accompagnement_à_la_vie_sociale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Prestations mises en œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Un SAVS organise et met en œuvre tout ou une partie des prestations suivantes au profit des personnes en situation de handicap :
 évaluation des besoins et des capacités non d'autonomie ;
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Service_d%E2%80%99accompagnement_%C3%A0_la_vie_sociale</t>
+          <t>Service_d’accompagnement_à_la_vie_sociale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Professionnels impliqués</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les prestations énumérées sont mises en œuvre par une équipe pluridisciplinaire comprenant ou associant tout ou partie des professionnels suivants :
 assistants de service social ;
